--- a/tut05/output/0401CS03.xlsx
+++ b/tut05/output/0401CS03.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.979591836734693</v>
+        <v>8.98</v>
       </c>
       <c r="C6" t="n">
-        <v>8.590909090909092</v>
+        <v>8.59</v>
       </c>
       <c r="D6" t="n">
-        <v>9.186046511627907</v>
+        <v>9.19</v>
       </c>
       <c r="E6" t="n">
-        <v>8.680851063829786</v>
+        <v>8.68</v>
       </c>
       <c r="F6" t="n">
-        <v>8.857142857142858</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>8.574999999999999</v>
+        <v>8.57</v>
       </c>
       <c r="H6" t="n">
-        <v>7.975609756097561</v>
+        <v>7.98</v>
       </c>
       <c r="I6" t="n">
         <v>8.35</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.979591836734693</v>
+        <v>8.98</v>
       </c>
       <c r="C8" t="n">
-        <v>8.795698924731182</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>8.919117647058824</v>
+        <v>8.92</v>
       </c>
       <c r="E8" t="n">
-        <v>8.857923497267759</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>8.857777777777779</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>8.815094339622641</v>
+        <v>8.82</v>
       </c>
       <c r="H8" t="n">
-        <v>8.702614379084967</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="I8" t="n">
-        <v>8.66184971098266</v>
+        <v>8.66</v>
       </c>
     </row>
   </sheetData>
